--- a/data/Tesis_Bitner.xlsx
+++ b/data/Tesis_Bitner.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACADEMIA\2024_II\DICTAMEN\ALARCON_ESPINOZA\ESTADISTICA_ANALISIS\EXPERIENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/262d2590214b62ee/Asesorias/Escuela CEDEPA/2da capacitación/Curso_disennos_experimentales/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B638211-4796-4563-8A01-519B77ED07D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{7B638211-4796-4563-8A01-519B77ED07D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F308F845-A47E-4BFE-8F71-BDF90C63837D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3A53755A-6132-41EC-92EA-6CCC7246B5BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3A53755A-6132-41EC-92EA-6CCC7246B5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Var_List" sheetId="2" r:id="rId1"/>
     <sheet name="Ccachupata" sheetId="1" r:id="rId2"/>
     <sheet name="Espinguni" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ccachupata!$A$1:$AX$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="158">
   <si>
     <t>Factor_Variables</t>
   </si>
@@ -505,6 +506,15 @@
   </si>
   <si>
     <t>DA/DP</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Ccachupata</t>
+  </si>
+  <si>
+    <t>Espinguni</t>
   </si>
 </sst>
 </file>
@@ -559,7 +569,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -632,7 +648,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -678,6 +694,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,7 +1008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +1019,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1497,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50E6D13-486D-42AE-9897-D24AB15CCC62}">
   <dimension ref="A1:AZ33"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1608,7 +1630,7 @@
       <c r="V1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="22" t="s">
         <v>50</v>
       </c>
       <c r="X1" s="11" t="s">
@@ -6466,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139007DB-C5E0-49FE-BB55-CE269F697363}">
   <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6567,7 +6589,7 @@
       <c r="V1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="21" t="s">
         <v>50</v>
       </c>
       <c r="X1" s="13" t="s">
@@ -11420,4 +11442,1425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7B9F73-AFEA-4963-94BF-324032DBC50E}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2">
+        <v>35.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8">
+        <v>66.709999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10">
+        <v>59.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <v>54.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12">
+        <v>47.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13">
+        <v>114.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15">
+        <v>41.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17">
+        <v>60.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <v>53.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23">
+        <v>38.409999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24">
+        <v>41.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31">
+        <v>108.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32">
+        <v>32.150000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34">
+        <v>2.6799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38">
+        <v>3.6799999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39">
+        <v>51.650000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40">
+        <v>32.07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45">
+        <v>103.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47">
+        <v>2.9800000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53">
+        <v>32.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57">
+        <v>42.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61">
+        <v>16.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>